--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-OP-SUPPORT-02).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-OP-SUPPORT-02).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,10 @@
   </si>
   <si>
     <t>UT-OP-SUPPORT-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,15 +569,36 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -582,27 +607,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -991,7 +995,7 @@
   <dimension ref="A2:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:J6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1006,10 +1010,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1022,110 +1026,110 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="28" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1140,40 +1144,40 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1183,7 +1187,7 @@
       <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="31"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -1202,7 +1206,9 @@
       <c r="F11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1557,6 +1563,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C6:J6"/>
@@ -1567,19 +1586,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1607,10 +1613,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1623,110 +1629,110 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="28" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1754,159 +1760,172 @@
         <v>27</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="38"/>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="37"/>
       <c r="B12" s="38"/>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
       <c r="B13" s="38"/>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="38"/>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="37"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="37"/>
       <c r="B17" s="38"/>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
       <c r="B18" s="38"/>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="37"/>
       <c r="B19" s="38"/>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="39"/>
       <c r="B20" s="40"/>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
@@ -1923,19 +1942,6 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1983,58 +1989,58 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="42"/>
@@ -2205,16 +2211,16 @@
       <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="24"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="42"/>
@@ -2385,16 +2391,16 @@
       <c r="J35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="24"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
@@ -2565,16 +2571,16 @@
       <c r="J50" s="44"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="24"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="42"/>
@@ -2745,16 +2751,16 @@
       <c r="J65" s="44"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="24"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="42"/>
@@ -2925,16 +2931,16 @@
       <c r="J80" s="44"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="23"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="24"/>
+      <c r="A81" s="31"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="26"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="42"/>
@@ -3105,16 +3111,16 @@
       <c r="J95" s="44"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="23"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="24"/>
+      <c r="A96" s="31"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="42"/>
@@ -3285,16 +3291,16 @@
       <c r="J110" s="44"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="23"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="34"/>
-      <c r="I111" s="34"/>
-      <c r="J111" s="24"/>
+      <c r="A111" s="31"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="26"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="42"/>
@@ -3465,16 +3471,16 @@
       <c r="J125" s="44"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="23"/>
-      <c r="B126" s="34"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
-      <c r="F126" s="34"/>
-      <c r="G126" s="34"/>
-      <c r="H126" s="34"/>
-      <c r="I126" s="34"/>
-      <c r="J126" s="24"/>
+      <c r="A126" s="31"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="26"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="42"/>
@@ -3645,16 +3651,16 @@
       <c r="J140" s="44"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="23"/>
-      <c r="B141" s="34"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="34"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="34"/>
-      <c r="G141" s="34"/>
-      <c r="H141" s="34"/>
-      <c r="I141" s="34"/>
-      <c r="J141" s="24"/>
+      <c r="A141" s="31"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="25"/>
+      <c r="E141" s="25"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="26"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="42"/>
@@ -3825,16 +3831,16 @@
       <c r="J155" s="44"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" s="23"/>
-      <c r="B156" s="34"/>
-      <c r="C156" s="34"/>
-      <c r="D156" s="34"/>
-      <c r="E156" s="34"/>
-      <c r="F156" s="34"/>
-      <c r="G156" s="34"/>
-      <c r="H156" s="34"/>
-      <c r="I156" s="34"/>
-      <c r="J156" s="24"/>
+      <c r="A156" s="31"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="26"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="42"/>
@@ -4294,21 +4300,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A127:J140"/>
-    <mergeCell ref="A141:J141"/>
-    <mergeCell ref="A142:J155"/>
-    <mergeCell ref="A156:J156"/>
-    <mergeCell ref="A157:J170"/>
-    <mergeCell ref="A96:J96"/>
-    <mergeCell ref="A97:J110"/>
-    <mergeCell ref="A111:J111"/>
-    <mergeCell ref="A112:J125"/>
-    <mergeCell ref="A126:J126"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J50"/>
-    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:J80"/>
+    <mergeCell ref="A81:J81"/>
+    <mergeCell ref="A82:J95"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A7:J20"/>
@@ -4316,11 +4312,21 @@
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:J4"/>
-    <mergeCell ref="A52:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A67:J80"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="A82:J95"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A96:J96"/>
+    <mergeCell ref="A97:J110"/>
+    <mergeCell ref="A111:J111"/>
+    <mergeCell ref="A112:J125"/>
+    <mergeCell ref="A126:J126"/>
+    <mergeCell ref="A127:J140"/>
+    <mergeCell ref="A141:J141"/>
+    <mergeCell ref="A142:J155"/>
+    <mergeCell ref="A156:J156"/>
+    <mergeCell ref="A157:J170"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-OP-SUPPORT-02).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-OP-SUPPORT-02).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
   <si>
     <t>테스트 
 완료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -265,6 +261,10 @@
   </si>
   <si>
     <t>PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,9 +512,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -568,6 +565,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -995,7 +995,7 @@
   <dimension ref="A2:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1021,7 +1021,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1030,14 +1030,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="32" t="s">
@@ -1047,8 +1047,8 @@
         <v>18</v>
       </c>
       <c r="I3" s="23"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
+      <c r="J3" s="21">
+        <v>43825</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1056,14 +1056,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="23"/>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="33"/>
@@ -1071,8 +1071,8 @@
         <v>19</v>
       </c>
       <c r="I4" s="23"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
+      <c r="J4" s="21">
+        <v>43826</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1081,13 +1081,13 @@
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="34"/>
@@ -1095,8 +1095,8 @@
         <v>20</v>
       </c>
       <c r="I5" s="23"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="J5" s="21">
+        <v>43830</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.3">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -1178,388 +1178,392 @@
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -1598,7 +1602,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:J7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1617,14 +1621,14 @@
         <v>22</v>
       </c>
       <c r="B2" s="30"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1633,14 +1637,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="32" t="s">
@@ -1650,8 +1654,8 @@
         <v>18</v>
       </c>
       <c r="I3" s="23"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
+      <c r="J3" s="21">
+        <v>43825</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1659,14 +1663,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="23"/>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="33"/>
@@ -1674,8 +1678,8 @@
         <v>19</v>
       </c>
       <c r="I4" s="23"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
+      <c r="J4" s="21">
+        <v>43826</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1684,13 +1688,13 @@
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="34"/>
@@ -1698,8 +1702,8 @@
         <v>20</v>
       </c>
       <c r="I5" s="23"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="J5" s="21">
+        <v>43830</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1708,7 +1712,7 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -1724,7 +1728,7 @@
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -1737,179 +1741,223 @@
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>41</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="38"/>
       <c r="C11" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="37"/>
       <c r="B12" s="38"/>
       <c r="C12" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="26"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
       <c r="B13" s="38"/>
       <c r="C13" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="26"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="38"/>
       <c r="C14" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
       <c r="B15" s="38"/>
       <c r="C15" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="37"/>
       <c r="B16" s="38"/>
       <c r="C16" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="26"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="37"/>
       <c r="B17" s="38"/>
       <c r="C17" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="I17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
       <c r="B18" s="38"/>
       <c r="C18" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="26"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="37"/>
       <c r="B19" s="38"/>
       <c r="C19" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="39"/>
       <c r="B20" s="40"/>
       <c r="C20" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -1968,8 +2016,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>43</v>
+      <c r="A1" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1984,7 +2032,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1993,14 +2041,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
@@ -2013,14 +2061,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="23"/>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
@@ -2030,7 +2078,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -4011,292 +4059,292 @@
       <c r="J170" s="44"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A171" s="17"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="17"/>
-      <c r="G171" s="17"/>
-      <c r="H171" s="17"/>
-      <c r="I171" s="17"/>
-      <c r="J171" s="18"/>
+      <c r="A171" s="16"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="16"/>
+      <c r="H171" s="16"/>
+      <c r="I171" s="16"/>
+      <c r="J171" s="17"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A172" s="10"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
-      <c r="E172" s="11"/>
-      <c r="F172" s="11"/>
-      <c r="G172" s="11"/>
-      <c r="H172" s="11"/>
-      <c r="I172" s="11"/>
-      <c r="J172" s="12"/>
+      <c r="A172" s="9"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="10"/>
+      <c r="I172" s="10"/>
+      <c r="J172" s="11"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A173" s="10"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
-      <c r="H173" s="11"/>
-      <c r="I173" s="11"/>
-      <c r="J173" s="12"/>
+      <c r="A173" s="9"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="10"/>
+      <c r="I173" s="10"/>
+      <c r="J173" s="11"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A174" s="10"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="11"/>
-      <c r="F174" s="11"/>
-      <c r="G174" s="11"/>
-      <c r="H174" s="11"/>
-      <c r="I174" s="11"/>
-      <c r="J174" s="12"/>
+      <c r="A174" s="9"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="11"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A175" s="10"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="11"/>
-      <c r="F175" s="11"/>
-      <c r="G175" s="11"/>
-      <c r="H175" s="11"/>
-      <c r="I175" s="11"/>
-      <c r="J175" s="12"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="11"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A176" s="10"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11"/>
-      <c r="F176" s="11"/>
-      <c r="G176" s="11"/>
-      <c r="H176" s="11"/>
-      <c r="I176" s="11"/>
-      <c r="J176" s="12"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="11"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A177" s="10"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="11"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="11"/>
-      <c r="H177" s="11"/>
-      <c r="I177" s="11"/>
-      <c r="J177" s="12"/>
+      <c r="A177" s="9"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="11"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A178" s="10"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
-      <c r="E178" s="11"/>
-      <c r="F178" s="11"/>
-      <c r="G178" s="11"/>
-      <c r="H178" s="11"/>
-      <c r="I178" s="11"/>
-      <c r="J178" s="12"/>
+      <c r="A178" s="9"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="11"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A179" s="10"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="11"/>
-      <c r="F179" s="11"/>
-      <c r="G179" s="11"/>
-      <c r="H179" s="11"/>
-      <c r="I179" s="11"/>
-      <c r="J179" s="12"/>
+      <c r="A179" s="9"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="11"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A180" s="10"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
-      <c r="E180" s="11"/>
-      <c r="F180" s="11"/>
-      <c r="G180" s="11"/>
-      <c r="H180" s="11"/>
-      <c r="I180" s="11"/>
-      <c r="J180" s="12"/>
+      <c r="A180" s="9"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="11"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A181" s="10"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
-      <c r="E181" s="11"/>
-      <c r="F181" s="11"/>
-      <c r="G181" s="11"/>
-      <c r="H181" s="11"/>
-      <c r="I181" s="11"/>
-      <c r="J181" s="12"/>
+      <c r="A181" s="9"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="10"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="11"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A182" s="10"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="11"/>
-      <c r="E182" s="11"/>
-      <c r="F182" s="11"/>
-      <c r="G182" s="11"/>
-      <c r="H182" s="11"/>
-      <c r="I182" s="11"/>
-      <c r="J182" s="12"/>
+      <c r="A182" s="9"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+      <c r="H182" s="10"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="11"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A183" s="10"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="11"/>
-      <c r="D183" s="11"/>
-      <c r="E183" s="11"/>
-      <c r="F183" s="11"/>
-      <c r="G183" s="11"/>
-      <c r="H183" s="11"/>
-      <c r="I183" s="11"/>
-      <c r="J183" s="12"/>
+      <c r="A183" s="9"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
+      <c r="H183" s="10"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="11"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A184" s="10"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="11"/>
-      <c r="D184" s="11"/>
-      <c r="E184" s="11"/>
-      <c r="F184" s="11"/>
-      <c r="G184" s="11"/>
-      <c r="H184" s="11"/>
-      <c r="I184" s="11"/>
-      <c r="J184" s="12"/>
+      <c r="A184" s="9"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
+      <c r="H184" s="10"/>
+      <c r="I184" s="10"/>
+      <c r="J184" s="11"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A185" s="10"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="11"/>
-      <c r="D185" s="11"/>
-      <c r="E185" s="11"/>
-      <c r="F185" s="11"/>
-      <c r="G185" s="11"/>
-      <c r="H185" s="11"/>
-      <c r="I185" s="11"/>
-      <c r="J185" s="12"/>
+      <c r="A185" s="9"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="10"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
+      <c r="H185" s="10"/>
+      <c r="I185" s="10"/>
+      <c r="J185" s="11"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A186" s="10"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
-      <c r="E186" s="11"/>
-      <c r="F186" s="11"/>
-      <c r="G186" s="11"/>
-      <c r="H186" s="11"/>
-      <c r="I186" s="11"/>
-      <c r="J186" s="12"/>
+      <c r="A186" s="9"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
+      <c r="H186" s="10"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="11"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A187" s="10"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
-      <c r="E187" s="11"/>
-      <c r="F187" s="11"/>
-      <c r="G187" s="11"/>
-      <c r="H187" s="11"/>
-      <c r="I187" s="11"/>
-      <c r="J187" s="12"/>
+      <c r="A187" s="9"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10"/>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="11"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A188" s="10"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
-      <c r="E188" s="11"/>
-      <c r="F188" s="11"/>
-      <c r="G188" s="11"/>
-      <c r="H188" s="11"/>
-      <c r="I188" s="11"/>
-      <c r="J188" s="12"/>
+      <c r="A188" s="9"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
+      <c r="H188" s="10"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="11"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A189" s="10"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="11"/>
-      <c r="F189" s="11"/>
-      <c r="G189" s="11"/>
-      <c r="H189" s="11"/>
-      <c r="I189" s="11"/>
-      <c r="J189" s="12"/>
+      <c r="A189" s="9"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="11"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A190" s="10"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
-      <c r="E190" s="11"/>
-      <c r="F190" s="11"/>
-      <c r="G190" s="11"/>
-      <c r="H190" s="11"/>
-      <c r="I190" s="11"/>
-      <c r="J190" s="12"/>
+      <c r="A190" s="9"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="11"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A191" s="10"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
-      <c r="D191" s="11"/>
-      <c r="E191" s="11"/>
-      <c r="F191" s="11"/>
-      <c r="G191" s="11"/>
-      <c r="H191" s="11"/>
-      <c r="I191" s="11"/>
-      <c r="J191" s="12"/>
+      <c r="A191" s="9"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="11"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A192" s="10"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
-      <c r="E192" s="11"/>
-      <c r="F192" s="11"/>
-      <c r="G192" s="11"/>
-      <c r="H192" s="11"/>
-      <c r="I192" s="11"/>
-      <c r="J192" s="12"/>
+      <c r="A192" s="9"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="11"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="10"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
-      <c r="D193" s="11"/>
-      <c r="E193" s="11"/>
-      <c r="F193" s="11"/>
-      <c r="G193" s="11"/>
-      <c r="H193" s="11"/>
-      <c r="I193" s="11"/>
-      <c r="J193" s="12"/>
+      <c r="A193" s="9"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="11"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A194" s="13"/>
-      <c r="B194" s="14"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="14"/>
-      <c r="E194" s="14"/>
-      <c r="F194" s="14"/>
-      <c r="G194" s="14"/>
-      <c r="H194" s="14"/>
-      <c r="I194" s="14"/>
-      <c r="J194" s="15"/>
+      <c r="A194" s="12"/>
+      <c r="B194" s="13"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13"/>
+      <c r="G194" s="13"/>
+      <c r="H194" s="13"/>
+      <c r="I194" s="13"/>
+      <c r="J194" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="27">
